--- a/Parameters/OLS_Weighted_Portfolio.xlsx
+++ b/Parameters/OLS_Weighted_Portfolio.xlsx
@@ -16,9 +16,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
   <si>
-    <t>Equally Weighted Portfolio</t>
-  </si>
-  <si>
     <t>alpha</t>
   </si>
   <si>
@@ -29,6 +26,9 @@
   </si>
   <si>
     <t>r_squared</t>
+  </si>
+  <si>
+    <t>Equally Weighted Portfolio</t>
   </si>
 </sst>
 </file>
@@ -386,47 +386,41 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B5"/>
+  <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:5">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:5">
       <c r="A2" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B2">
-        <v>-6.732895491134983E-17</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2">
-      <c r="A3" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3">
-        <v>0.9999999999999999</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2">
-      <c r="A4" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2">
-      <c r="A5" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B5">
-        <v>1</v>
+        <v>-0.1874557356489415</v>
+      </c>
+      <c r="C2">
+        <v>1.143987758487408</v>
+      </c>
+      <c r="D2">
+        <v>8.550413424604021E-36</v>
+      </c>
+      <c r="E2">
+        <v>0.6124761394227138</v>
       </c>
     </row>
   </sheetData>
